--- a/dealingprobs-master/txt/excel/Course involved.xlsx
+++ b/dealingprobs-master/txt/excel/Course involved.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>Program</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Download</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
     <t>AI for everyone</t>
   </si>
   <si>
@@ -65,33 +62,21 @@
     <t>deeplearning.ai</t>
   </si>
   <si>
-    <t>https://www.coursera.org/learn/ai-for-everyone/home/welcome</t>
-  </si>
-  <si>
     <t>Machine Learning</t>
   </si>
   <si>
     <t>Stanford</t>
   </si>
   <si>
-    <t>https://www.coursera.org/learn/machine-learning/home/welcome</t>
-  </si>
-  <si>
     <t>Python Class and inherence</t>
   </si>
   <si>
     <t>University of Michigan</t>
   </si>
   <si>
-    <t>https://www.coursera.org/learn/python-classes-inheritance/home/welcome</t>
-  </si>
-  <si>
     <t>Intro to python data science</t>
   </si>
   <si>
-    <t>https://www.coursera.org/learn/python-data-analysis/home/welcome</t>
-  </si>
-  <si>
     <t>CS50 M</t>
   </si>
   <si>
@@ -104,129 +89,78 @@
     <t>Harvard</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:HarvardX+CS50M+Mobile/course/</t>
-  </si>
-  <si>
     <t>Intro to Probability</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:HarvardX+STAT110x+2T2020/course/</t>
-  </si>
-  <si>
     <t>Algorithm: Design and Analysis</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:StanfordOnline+CSX0003+1T2020/course/</t>
-  </si>
-  <si>
     <t>Data structure and Fundamentals</t>
   </si>
   <si>
     <t>UCSD</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:UCSanDiegoX+ALGS201x+1T2019/course/</t>
-  </si>
-  <si>
     <t>Using py for Research</t>
   </si>
   <si>
-    <t>https://courses.edx.org/course_modes/choose/course-v1:HarvardX+PH526x+2T2020/</t>
-  </si>
-  <si>
     <t>CS50 AI</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:HarvardX+CS50AI+1T2020/course/</t>
-  </si>
-  <si>
     <t>Advaced Algo and Graph</t>
   </si>
   <si>
     <t>IMT</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:IMTx+NET04x+3T2018/course/</t>
-  </si>
-  <si>
     <t>Intro to python</t>
   </si>
   <si>
     <t>MIT</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:MITx+6.00.1x+2T2020a/course/</t>
-  </si>
-  <si>
     <t>Intro to computational thinking</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:MITx+6.00.2x+3T2020/course/</t>
-  </si>
-  <si>
     <t>Probablity and Stats</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:UCSanDiegoX+DSE210x+1T2020/course/</t>
-  </si>
-  <si>
     <t>Graph Algo</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:UCSanDiegoX+ALGS202x+2T2017/course/</t>
-  </si>
-  <si>
     <t>Dynamic Prog: ML and genomics</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:UCSanDiegoX+ALGS205x+1T2017/course/</t>
-  </si>
-  <si>
     <t>CS50 Intro</t>
   </si>
   <si>
     <t>Py, C, SQL</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:HarvardX+CS50+X/course/</t>
-  </si>
-  <si>
     <t>CS50 W</t>
   </si>
   <si>
     <t>Py,JS</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:HarvardX+CS50W+Web/course/</t>
-  </si>
-  <si>
     <t>Data Science: Productivity Tools</t>
   </si>
   <si>
     <t>UNIX,GIT</t>
   </si>
   <si>
-    <t>https://courses.edx.org/courses/course-v1:HarvardX+PH125.5x+2T2020/course/</t>
-  </si>
-  <si>
     <t>great Learning</t>
   </si>
   <si>
-    <t>https://olympus.greatlearning.in/courses/10902</t>
-  </si>
-  <si>
     <t>DSA in python</t>
   </si>
   <si>
     <t>Udacity</t>
   </si>
   <si>
-    <t>https://classroom.udacity.com/courses/ud513</t>
-  </si>
-  <si>
     <t>Intro to js,css,bootstrap</t>
   </si>
   <si>
@@ -236,9 +170,6 @@
     <t>Js,CSS</t>
   </si>
   <si>
-    <t>https://www.udemy.com/share/101W9CBkYZeFdXQng=/</t>
-  </si>
-  <si>
     <t>Intro to C++</t>
   </si>
   <si>
@@ -251,104 +182,65 @@
     <t>Code with Harry</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLu0W_9lII9agpFUAlPFe_VNSlXW5uE0YL</t>
-  </si>
-  <si>
     <t>Basic Cpp</t>
   </si>
   <si>
     <t>Saurav shukla</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLLYz8uHU480j37APNXBdPz7YzAi4XlQUF</t>
-  </si>
-  <si>
     <t>Git Tutorials</t>
   </si>
   <si>
     <t>GIT</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLu0W_9lII9agwhy658ZPA0MTStKUJTWPi</t>
-  </si>
-  <si>
     <t>Basic JavaScript and Css</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLu0W_9lII9ajyk081To1Cbt2eI5913SsL</t>
-  </si>
-  <si>
     <t>Basic Python</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLu0W_9lII9agICnT8t4iYVSZ3eykIAOME</t>
-  </si>
-  <si>
     <t>Dsa</t>
   </si>
   <si>
     <t>codebasics</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLeo1K3hjS3uu_n_a__MI_KktGTLYopZ12</t>
-  </si>
-  <si>
     <t>Numpy</t>
   </si>
   <si>
     <t>Harshit Vasishta</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLwgFb6VsUj_l5aAB7jLT6MMNunydQDa6v</t>
-  </si>
-  <si>
     <t>Intermidiate python</t>
   </si>
   <si>
     <t>sentdex</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLQVvvaa0QuDfju7ADVp5W1GF9jVhjbX-_</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/playlist?list=PLu0W_9lII9ai6fAMHp-acBmJONT7Y4BSG</t>
-  </si>
-  <si>
     <t>Basic,Int Python</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLeo1K3hjS3uv5U-Lmlnucd7gqF-3ehIh0</t>
-  </si>
-  <si>
     <t>Int and advanced Python</t>
   </si>
   <si>
     <t>RealPython</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLP8GkvaIxJP0VAXF3USi9U4JnpxUvQXHx</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/playlist?list=PLeo1K3hjS3uvCeTYTeyfe0-rN5r8zn9rw</t>
-  </si>
-  <si>
     <t>Pandas</t>
   </si>
   <si>
-    <t>https://www.youtube.com/playlist?list=PLeo1K3hjS3uuASpe-1LjfG5f14Bnozjwy</t>
-  </si>
-  <si>
     <t>Total Stats (hour watched,Completion Percentage,Status)</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1LERvRXfR0cuhEzBJmPos5MsEZKvlyJYsAqkz-NY-6MQ/edit#gid=0</t>
+    <t>Duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,14 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -403,34 +287,35 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Pacifico"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,13 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,9 +412,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,12 +422,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,19 +433,28 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -864,1089 +746,1088 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E36" sqref="A2:E36"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="1.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.66</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="2">
         <v>6</v>
       </c>
       <c r="G3" s="2">
+        <v>19</v>
+      </c>
+      <c r="H3" s="13">
         <v>31</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>9</v>
       </c>
       <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="H4" s="14">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A5" s="10" t="s">
+      <c r="G5" s="3">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>19</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A6" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="11">
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3">
         <v>0.75</v>
       </c>
       <c r="G7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="14">
         <v>100</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
       </c>
       <c r="G8" s="2">
+        <v>36.75</v>
+      </c>
+      <c r="H8" s="13">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.8" thickBot="1">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
         <v>5.33</v>
       </c>
       <c r="G10" s="2">
+        <v>9.83</v>
+      </c>
+      <c r="H10" s="13">
         <v>54</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.8" thickBot="1">
+        <v>12.66</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.8" thickBot="1">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3">
         <v>20</v>
       </c>
       <c r="G13" s="3">
+        <v>20</v>
+      </c>
+      <c r="H13" s="14">
         <v>100</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="11">
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.8" thickBot="1">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2">
         <v>11.75</v>
       </c>
       <c r="G15" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="H15" s="13">
         <v>45</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="11">
         <v>2</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.8" thickBot="1">
+        <v>26.66</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="11">
         <v>2</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.8" thickBot="1">
+        <v>25.66</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>9.66</v>
       </c>
       <c r="G18" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" s="13">
         <v>69</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.8" thickBot="1">
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D20" s="11">
         <v>1</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3">
         <v>1.5</v>
       </c>
       <c r="G20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="14">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.8" thickBot="1">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="11">
         <v>1</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.8" thickBot="1">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="14">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D23" s="11">
         <v>1</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.8" thickBot="1">
+        <v>61.5</v>
+      </c>
+      <c r="H23" s="13">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2">
         <v>16.8</v>
       </c>
       <c r="G24" s="2">
+        <v>21</v>
+      </c>
+      <c r="H24" s="13">
         <v>80</v>
       </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2">
         <v>2.5</v>
       </c>
       <c r="G25" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="H25" s="13">
         <v>14</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F26" s="3">
         <v>5</v>
       </c>
       <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="14">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2">
         <v>3</v>
       </c>
       <c r="G27" s="2">
+        <v>22</v>
+      </c>
+      <c r="H27" s="13">
         <v>13</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2">
         <v>12</v>
       </c>
       <c r="G28" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="H28" s="13">
         <v>42</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="11">
         <v>2</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="G29" s="2">
-        <v>40</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.8" thickBot="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H29" s="13">
+        <v>65</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="11">
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
       </c>
       <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="14">
         <v>100</v>
       </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="11">
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2">
         <v>4.5</v>
       </c>
       <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="13">
         <v>90</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="11">
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.8" thickBot="1">
+        <v>9.75</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="2">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2">
-        <v>93</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.8" thickBot="1">
+        <v>59</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="H33" s="14">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="11">
         <v>2</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.8" thickBot="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="11">
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2">
         <v>1.66</v>
       </c>
       <c r="G35" s="2">
+        <v>11</v>
+      </c>
+      <c r="H35" s="13">
         <v>15</v>
       </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.8" thickBot="1">
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="11">
         <v>1</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.2" thickBot="1">
-      <c r="A37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H36" s="13">
+        <v>34</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="4">
-        <v>121.45</v>
+        <v>150.55000000000001</v>
       </c>
       <c r="G37" s="4">
-        <v>34</v>
+        <v>455.67</v>
       </c>
       <c r="H37" s="4">
-        <v>74</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="I37" s="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1957,7 +1838,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1968,7 +1849,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1979,7 +1860,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1995,15 +1876,10 @@
     <mergeCell ref="A37:E37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I37" r:id="rId1" location="gid=0" display="https://docs.google.com/spreadsheets/d/1LERvRXfR0cuhEzBJmPos5MsEZKvlyJYsAqkz-NY-6MQ/edit - gid=0"/>
-    <hyperlink ref="I36" r:id="rId2"/>
-    <hyperlink ref="I35" r:id="rId3"/>
-    <hyperlink ref="I17" r:id="rId4"/>
-    <hyperlink ref="I15" r:id="rId5"/>
-    <hyperlink ref="I14" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://deeplearning.ai/"/>
+    <hyperlink ref="G1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>